--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/33_Gaziantep_2023.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/33_Gaziantep_2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{724E561D-0675-41D0-B536-219585D24270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E38FA95F-7385-4DB9-AD45-7EFE5EFBBFEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="667" xr2:uid="{91566B75-C80F-4D66-8968-27336133EBA6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="667" xr2:uid="{80DCE13E-D431-4C53-9B07-84FABA1944E2}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="124" r:id="rId1"/>
@@ -917,13 +917,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{AD12E371-AD3B-4064-967D-F1FD2655B0CC}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{BE9E24D7-76FC-44B7-A4BB-D7108905F8EE}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{40774A7D-6C06-4CAA-B66F-98B5545227BB}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{D3F71967-05CE-4D2C-A746-411319DEA33C}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{2C3807B9-A5F1-438F-875F-5D7233FE1097}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{6F9BB3DC-17F6-47E2-9DA7-0A2CEBD0EC94}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{5714AB4D-4166-4B37-9286-38FA608FAFAA}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{A58909B3-B9C1-4314-AB99-C1493AB20F2B}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{106CCE61-2B0C-41F4-AAC6-8C38209B8FB1}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{C8C36826-2746-44F5-B61B-499548FBEA1F}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{616F9745-2732-433A-BE3D-63B4631C7F94}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{AF2E99F6-5091-45A5-B29A-8859037D038C}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{8569F7AA-AE38-4765-9A1D-1148519C00B8}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{13ADE6FF-F4DB-483B-AD1E-C8F07ACC0F27}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1293,7 +1293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58FF9451-E91D-449F-BDE5-C81F0B179BA2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{365B4F0B-779F-4ABB-A81F-869037950D44}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2601,7 +2601,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148735F6-CFD1-4788-8109-8FE24CB4596E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A36ACFC2-B508-44AB-8146-72DB2207EE44}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A37" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3868,7 +3868,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{219C9F5B-409E-4D53-948E-7F03BF835787}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15830F8E-1708-4A2F-B370-388EC595CADB}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A37" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5135,7 +5135,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F1CA2A-AC2E-488E-A3C3-226109E8D19F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C130FCD-F582-419D-823C-FAB7BBCB44B9}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6392,7 +6392,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7373B271-9C33-4A7E-A8E2-6F5F8A309D8B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F71644EC-9E2B-4DF0-B764-7159F2990553}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7699,7 +7699,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAB6551E-FBCE-42AD-A758-671B51CEB2CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C61CA965-052C-417A-85AC-F77817799B4F}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9006,7 +9006,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0AB874A-8D0C-400D-B958-C8995953107B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D0E9A0-C275-43A8-9DEA-63F170A1BA80}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10309,7 +10309,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B6D62E5-5EDC-4C30-AB09-F148B7AF124A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DE506CE-5AE9-4646-A4C3-FA3FEFA91A30}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A34" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11612,7 +11612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E4F3BFA-0284-492E-837B-96627FFD6411}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3899C33-95A8-4A24-A4AC-C921AB45303C}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A37" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12911,7 +12911,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48015806-3DEF-455D-B469-2F512899BD95}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96161E12-BEED-48B0-B2C6-401B6602B747}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A52" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14198,7 +14198,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D0EDDEE-E171-4024-9E29-CA1EB5D7239A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{689013CC-F58B-4B02-B3DC-8EBDF5C65FDC}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15485,7 +15485,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F54B86F-4774-49AA-9B70-201BD802D2A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{544B5A50-6B73-4BCD-B9A4-5EB307927BAF}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A46" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
